--- a/doc/主动技能/随机技能与主动技能逻辑.xlsx
+++ b/doc/主动技能/随机技能与主动技能逻辑.xlsx
@@ -60,11 +60,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,18 +82,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -102,35 +109,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,15 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +130,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,16 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,46 +208,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +480,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +504,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -562,148 +555,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1059,7 @@
   <dimension ref="H17:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/主动技能/随机技能与主动技能逻辑.xlsx
+++ b/doc/主动技能/随机技能与主动技能逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>不触发</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>弹框</t>
+  </si>
+  <si>
+    <t>BuffLayer是否显示、</t>
   </si>
   <si>
     <t>先手</t>
@@ -59,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,23 +89,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,19 +98,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -131,22 +120,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +142,74 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -170,7 +219,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,52 +228,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +463,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +489,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -503,7 +517,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,22 +526,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,13 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,152 +565,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1063,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="H17:M21"/>
+  <dimension ref="H17:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1077,7 +1083,7 @@
     <col min="13" max="13" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" ht="16.5" spans="8:13">
+    <row r="17" ht="16.5" spans="8:14">
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,11 +1101,14 @@
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="8:13">
       <c r="H18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1111,15 +1120,15 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="8:13">
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1131,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="8:13">
@@ -1147,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="8:13">
@@ -1163,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
